--- a/biology/Zoologie/Carpilius_convexus/Carpilius_convexus.xlsx
+++ b/biology/Zoologie/Carpilius_convexus/Carpilius_convexus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crabe des coraux, crabe rouge du corail, crabe toxique
-Le crabe rouge des coraux (Carpilius convexus) est une espèce de crabes qui vit dans les océans Indien et Pacifique depuis Hawaï jusqu'à la mer Rouge et l'Afrique du Sud[1]. On le retrouve également en Atlantique, dans le Golfe du Mexique et la mer des Caraïbes[2].
+Le crabe rouge des coraux (Carpilius convexus) est une espèce de crabes qui vit dans les océans Indien et Pacifique depuis Hawaï jusqu'à la mer Rouge et l'Afrique du Sud. On le retrouve également en Atlantique, dans le Golfe du Mexique et la mer des Caraïbes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit crabe (6-8 cm[3]), à la carapace bombée et irrégulièrement maculée de rouge et de crème, dans des proportions variables, avec parfois des taches plus foncées. L'ensemble du corps est lisse, et d'aspect trapu[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit crabe (6-8 cm), à la carapace bombée et irrégulièrement maculée de rouge et de crème, dans des proportions variables, avec parfois des taches plus foncées. L'ensemble du corps est lisse, et d'aspect trapu.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crabe est présent de manière irrégulière dans des récifs de corail de tout l'Indo-Pacifique, des côtes est-africaines aux côtes est-américaines (Californie)[3]. On le retrouve également en Atlantique, dans le Golfe du Mexique et la mer des Caraïbes[2]. Il est généralement situé entre 2 et 60 m de profondeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crabe est présent de manière irrégulière dans des récifs de corail de tout l'Indo-Pacifique, des côtes est-africaines aux côtes est-américaines (Californie). On le retrouve également en Atlantique, dans le Golfe du Mexique et la mer des Caraïbes. Il est généralement situé entre 2 et 60 m de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Caractéristiques et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit pour la première fois par Peter Forsskål en 1775 sous le nom de Cancer convexus, et a parfois été considéré comme une sous-espèce de Carpilius maculatus[1]. La biologie du genre Carpilius est mal connue [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit pour la première fois par Peter Forsskål en 1775 sous le nom de Cancer convexus, et a parfois été considéré comme une sous-espèce de Carpilius maculatus. La biologie du genre Carpilius est mal connue .
 </t>
         </is>
       </c>
